--- a/ВКР-МВА-ТХ-Кладбище-ИНВЕСТ.xlsx
+++ b/ВКР-МВА-ТХ-Кладбище-ИНВЕСТ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taras.khamardiuk\Desktop\MBA THESIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taras.khamardiuk\PROJECTS\City-Business-School-MBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA11E81E-EDE1-4FD1-8ACB-FD5362C6EB0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2848AC-7913-4AC8-9F7E-4AE160D1B180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{98BDCC7B-F254-417C-B468-A557DF09F64B}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{98BDCC7B-F254-417C-B468-A557DF09F64B}"/>
   </bookViews>
   <sheets>
     <sheet name="Вместимость" sheetId="7" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="299">
   <si>
     <t>Зарплата</t>
   </si>
@@ -1186,6 +1186,9 @@
   </si>
   <si>
     <t>Место на кладбище за кв м.</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -2082,69 +2085,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2174,6 +2114,69 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2550,8 +2553,8 @@
   </sheetPr>
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,212 +2591,212 @@
       <c r="J2" s="164"/>
       <c r="K2" s="164"/>
       <c r="L2" s="164"/>
-      <c r="M2" s="191"/>
+      <c r="M2" s="170"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="167"/>
       <c r="C3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="194"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="173"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="167"/>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="171" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="192"/>
-      <c r="E4" s="195">
+      <c r="D4" s="171"/>
+      <c r="E4" s="174">
         <v>85000</v>
       </c>
-      <c r="F4" s="193"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="194"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="173"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="167"/>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="171" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="195">
+      <c r="D5" s="171"/>
+      <c r="E5" s="174">
         <v>10</v>
       </c>
-      <c r="F5" s="193"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
-      <c r="M5" s="194"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="173"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="167"/>
       <c r="C6" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="192"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="36">
         <f>E4/E5</f>
         <v>8500</v>
       </c>
-      <c r="F6" s="193"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="194"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="173"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="167"/>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="171" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="196">
+      <c r="D7" s="175">
         <v>0.1</v>
       </c>
-      <c r="E7" s="192">
+      <c r="E7" s="171">
         <f>E6*D7</f>
         <v>850</v>
       </c>
-      <c r="F7" s="193"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="194"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="173"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="167"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="194"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="173"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="167"/>
       <c r="C9" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="192"/>
+      <c r="D9" s="171"/>
       <c r="E9" s="36">
         <f>E6-E7</f>
         <v>7650</v>
       </c>
-      <c r="F9" s="193"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="194"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="173"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="167"/>
-      <c r="C10" s="192" t="str">
+      <c r="C10" s="171" t="str">
         <f>"А - Оптимистический сценарий ("&amp;D10*100&amp;"%)"</f>
         <v>А - Оптимистический сценарий (90%)</v>
       </c>
-      <c r="D10" s="196">
+      <c r="D10" s="175">
         <v>0.9</v>
       </c>
-      <c r="E10" s="192">
+      <c r="E10" s="171">
         <f>D10*$E$9</f>
         <v>6885</v>
       </c>
-      <c r="F10" s="193"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="194"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="173"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="167"/>
-      <c r="C11" s="192" t="str">
+      <c r="C11" s="171" t="str">
         <f>"Б - Нейтральный сценарий ("&amp;D11*100&amp;"%)"</f>
         <v>Б - Нейтральный сценарий (80%)</v>
       </c>
-      <c r="D11" s="196">
+      <c r="D11" s="175">
         <v>0.8</v>
       </c>
-      <c r="E11" s="192">
+      <c r="E11" s="171">
         <f t="shared" ref="E11:E12" si="0">D11*$E$9</f>
         <v>6120</v>
       </c>
-      <c r="F11" s="193"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="194"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="173"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="167"/>
-      <c r="C12" s="192" t="str">
+      <c r="C12" s="171" t="str">
         <f>"В - Пессимистический сценарий ("&amp;D12*100&amp;"%)"</f>
         <v>В - Пессимистический сценарий (70%)</v>
       </c>
-      <c r="D12" s="196">
+      <c r="D12" s="175">
         <v>0.7</v>
       </c>
-      <c r="E12" s="192">
+      <c r="E12" s="171">
         <f t="shared" si="0"/>
         <v>5355</v>
       </c>
-      <c r="F12" s="193"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="194"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="173"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="167"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="194"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="173"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="167"/>
@@ -2806,91 +2809,91 @@
       <c r="E14" s="36">
         <v>12</v>
       </c>
-      <c r="F14" s="198">
-        <v>1</v>
-      </c>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="194"/>
+      <c r="F14" s="177">
+        <v>1</v>
+      </c>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="173"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="167"/>
-      <c r="C15" s="192" t="str">
+      <c r="C15" s="171" t="str">
         <f>"Оптимистический сценарий ("&amp;D15*100&amp;"%)"</f>
         <v>Оптимистический сценарий (30%)</v>
       </c>
-      <c r="D15" s="196">
+      <c r="D15" s="175">
         <v>0.3</v>
       </c>
-      <c r="E15" s="192">
+      <c r="E15" s="171">
         <f>ROUNDDOWN(D15*$E$10,0)</f>
         <v>2065</v>
       </c>
-      <c r="F15" s="199">
+      <c r="F15" s="178">
         <f>ROUNDDOWN(E15/$E$14,0)</f>
         <v>172</v>
       </c>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="194"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="173"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="167"/>
-      <c r="C16" s="192" t="str">
+      <c r="C16" s="171" t="str">
         <f>"Нейтральный сценарий ("&amp;D16*100&amp;"%)"</f>
         <v>Нейтральный сценарий (20%)</v>
       </c>
-      <c r="D16" s="196">
+      <c r="D16" s="175">
         <v>0.2</v>
       </c>
-      <c r="E16" s="192">
+      <c r="E16" s="171">
         <f t="shared" ref="E16:E17" si="1">ROUNDDOWN(D16*$E$10,0)</f>
         <v>1377</v>
       </c>
-      <c r="F16" s="199">
+      <c r="F16" s="178">
         <f t="shared" ref="F16:F17" si="2">ROUNDDOWN(E16/$E$14,0)</f>
         <v>114</v>
       </c>
-      <c r="G16" s="192"/>
-      <c r="H16" s="174" t="s">
+      <c r="G16" s="171"/>
+      <c r="H16" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="I16" s="175"/>
-      <c r="J16" s="170" t="s">
+      <c r="I16" s="191"/>
+      <c r="J16" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="K16" s="170"/>
-      <c r="L16" s="171"/>
-      <c r="M16" s="194"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="173"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="167"/>
-      <c r="C17" s="192" t="str">
+      <c r="C17" s="171" t="str">
         <f>"Пессимистический сценарий ("&amp;D17*100&amp;"%)"</f>
         <v>Пессимистический сценарий (10%)</v>
       </c>
-      <c r="D17" s="196">
+      <c r="D17" s="175">
         <v>0.1</v>
       </c>
-      <c r="E17" s="192">
+      <c r="E17" s="171">
         <f t="shared" si="1"/>
         <v>688</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="178">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="G17" s="192"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="177"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="193"/>
       <c r="J17" s="132">
         <f>D10</f>
         <v>0.9</v>
@@ -2903,16 +2906,16 @@
         <f>D12</f>
         <v>0.7</v>
       </c>
-      <c r="M17" s="194"/>
+      <c r="M17" s="173"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="167"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="172" t="s">
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="188" t="s">
         <v>211</v>
       </c>
       <c r="I18" s="132">
@@ -2931,7 +2934,7 @@
         <f>E25</f>
         <v>1606</v>
       </c>
-      <c r="M18" s="194"/>
+      <c r="M18" s="173"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="167"/>
@@ -2944,11 +2947,11 @@
       <c r="E19" s="36">
         <v>12</v>
       </c>
-      <c r="F19" s="198">
-        <v>1</v>
-      </c>
-      <c r="G19" s="192"/>
-      <c r="H19" s="172"/>
+      <c r="F19" s="177">
+        <v>1</v>
+      </c>
+      <c r="G19" s="171"/>
+      <c r="H19" s="188"/>
       <c r="I19" s="132">
         <f t="shared" si="3"/>
         <v>0.2</v>
@@ -2965,27 +2968,27 @@
         <f>E26</f>
         <v>1071</v>
       </c>
-      <c r="M19" s="194"/>
+      <c r="M19" s="173"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="167"/>
-      <c r="C20" s="192" t="str">
+      <c r="C20" s="171" t="str">
         <f>"Оптимистический сценарий ("&amp;D20*100&amp;"%)"</f>
         <v>Оптимистический сценарий (30%)</v>
       </c>
-      <c r="D20" s="196">
+      <c r="D20" s="175">
         <v>0.3</v>
       </c>
-      <c r="E20" s="192">
+      <c r="E20" s="171">
         <f>ROUNDDOWN(D20*$E$11,0)</f>
         <v>1836</v>
       </c>
-      <c r="F20" s="199">
+      <c r="F20" s="178">
         <f>ROUNDDOWN(E20/$E$14,0)</f>
         <v>153</v>
       </c>
-      <c r="G20" s="192"/>
-      <c r="H20" s="173"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="189"/>
       <c r="I20" s="136">
         <f t="shared" si="3"/>
         <v>0.1</v>
@@ -3002,75 +3005,75 @@
         <f>E27</f>
         <v>535</v>
       </c>
-      <c r="M20" s="194"/>
+      <c r="M20" s="173"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="167"/>
-      <c r="C21" s="192" t="str">
+      <c r="C21" s="171" t="str">
         <f>"Нейтральный сценарий ("&amp;D21*100&amp;"%)"</f>
         <v>Нейтральный сценарий (20%)</v>
       </c>
-      <c r="D21" s="196">
+      <c r="D21" s="175">
         <v>0.2</v>
       </c>
-      <c r="E21" s="192">
+      <c r="E21" s="171">
         <f t="shared" ref="E21:E22" si="4">ROUNDDOWN(D21*$E$11,0)</f>
         <v>1224</v>
       </c>
-      <c r="F21" s="199">
+      <c r="F21" s="178">
         <f t="shared" ref="F21:F22" si="5">ROUNDDOWN(E21/$E$14,0)</f>
         <v>102</v>
       </c>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="194"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="173"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="167"/>
-      <c r="C22" s="192" t="str">
+      <c r="C22" s="171" t="str">
         <f>"Пессимистический сценарий ("&amp;D22*100&amp;"%)"</f>
         <v>Пессимистический сценарий (10%)</v>
       </c>
-      <c r="D22" s="196">
+      <c r="D22" s="175">
         <v>0.1</v>
       </c>
-      <c r="E22" s="192">
+      <c r="E22" s="171">
         <f t="shared" si="4"/>
         <v>612</v>
       </c>
-      <c r="F22" s="199">
+      <c r="F22" s="178">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="194"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="173"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="167"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="174" t="s">
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="190" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="175"/>
-      <c r="J23" s="170" t="s">
+      <c r="I23" s="191"/>
+      <c r="J23" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="K23" s="170"/>
-      <c r="L23" s="171"/>
-      <c r="M23" s="194"/>
+      <c r="K23" s="186"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="173"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="167"/>
@@ -3083,12 +3086,12 @@
       <c r="E24" s="36">
         <v>12</v>
       </c>
-      <c r="F24" s="198">
-        <v>1</v>
-      </c>
-      <c r="G24" s="192"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="177"/>
+      <c r="F24" s="177">
+        <v>1</v>
+      </c>
+      <c r="G24" s="171"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="193"/>
       <c r="J24" s="132">
         <f>D10</f>
         <v>0.9</v>
@@ -3101,27 +3104,27 @@
         <f>D12</f>
         <v>0.7</v>
       </c>
-      <c r="M24" s="194"/>
+      <c r="M24" s="173"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="167"/>
-      <c r="C25" s="192" t="str">
+      <c r="C25" s="171" t="str">
         <f>"Оптимистический сценарий ("&amp;D25*100&amp;"%)"</f>
         <v>Оптимистический сценарий (30%)</v>
       </c>
-      <c r="D25" s="196">
+      <c r="D25" s="175">
         <v>0.3</v>
       </c>
-      <c r="E25" s="192">
+      <c r="E25" s="171">
         <f>ROUNDDOWN(D25*$E$12,0)</f>
         <v>1606</v>
       </c>
-      <c r="F25" s="199">
+      <c r="F25" s="178">
         <f>ROUNDDOWN(E25/$E$14,0)</f>
         <v>133</v>
       </c>
-      <c r="G25" s="192"/>
-      <c r="H25" s="172" t="s">
+      <c r="G25" s="171"/>
+      <c r="H25" s="188" t="s">
         <v>211</v>
       </c>
       <c r="I25" s="132">
@@ -3140,27 +3143,27 @@
         <f>F17</f>
         <v>57</v>
       </c>
-      <c r="M25" s="194"/>
+      <c r="M25" s="173"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="167"/>
-      <c r="C26" s="192" t="str">
+      <c r="C26" s="171" t="str">
         <f>"Нейтральный сценарий ("&amp;D26*100&amp;"%)"</f>
         <v>Нейтральный сценарий (20%)</v>
       </c>
-      <c r="D26" s="196">
+      <c r="D26" s="175">
         <v>0.2</v>
       </c>
-      <c r="E26" s="192">
+      <c r="E26" s="171">
         <f t="shared" ref="E26:E27" si="6">ROUNDDOWN(D26*$E$12,0)</f>
         <v>1071</v>
       </c>
-      <c r="F26" s="199">
+      <c r="F26" s="178">
         <f t="shared" ref="F26:F27" si="7">ROUNDDOWN(E26/$E$14,0)</f>
         <v>89</v>
       </c>
-      <c r="G26" s="192"/>
-      <c r="H26" s="172"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="188"/>
       <c r="I26" s="132">
         <f>D16</f>
         <v>0.2</v>
@@ -3177,27 +3180,27 @@
         <f>F22</f>
         <v>51</v>
       </c>
-      <c r="M26" s="194"/>
+      <c r="M26" s="173"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="167"/>
-      <c r="C27" s="192" t="str">
+      <c r="C27" s="171" t="str">
         <f>"Пессимистический сценарий ("&amp;D27*100&amp;"%)"</f>
         <v>Пессимистический сценарий (10%)</v>
       </c>
-      <c r="D27" s="196">
+      <c r="D27" s="175">
         <v>0.1</v>
       </c>
-      <c r="E27" s="192">
+      <c r="E27" s="171">
         <f t="shared" si="6"/>
         <v>535</v>
       </c>
-      <c r="F27" s="199">
+      <c r="F27" s="178">
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="G27" s="192"/>
-      <c r="H27" s="173"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="189"/>
       <c r="I27" s="136">
         <f>D17</f>
         <v>0.1</v>
@@ -3214,10 +3217,10 @@
         <f>F27</f>
         <v>44</v>
       </c>
-      <c r="M27" s="194"/>
+      <c r="M27" s="173"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="200"/>
+      <c r="B28" s="179"/>
       <c r="C28" s="156"/>
       <c r="D28" s="156"/>
       <c r="E28" s="156"/>
@@ -3228,7 +3231,7 @@
       <c r="J28" s="156"/>
       <c r="K28" s="156"/>
       <c r="L28" s="156"/>
-      <c r="M28" s="201"/>
+      <c r="M28" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5816,7 +5819,7 @@
         <f>F98/F4</f>
         <v>-9.0358674813824688E-2</v>
       </c>
-      <c r="E98" s="202">
+      <c r="E98" s="181">
         <f>E6-E46</f>
         <v>0</v>
       </c>
@@ -9111,7 +9114,7 @@
         <f>G97/G5</f>
         <v>7.8415505060151075E-4</v>
       </c>
-      <c r="F97" s="202">
+      <c r="F97" s="181">
         <f>F5-F45</f>
         <v>6.7506082191775931</v>
       </c>
@@ -12404,7 +12407,7 @@
         <f>F96/F4</f>
         <v>6.3034927767610174E-2</v>
       </c>
-      <c r="E96" s="202">
+      <c r="E96" s="181">
         <f>E4-E44</f>
         <v>665.26026575342439</v>
       </c>
@@ -13173,19 +13176,19 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="205" t="s">
+      <c r="D2" s="184" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="183" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="206" t="s">
+      <c r="F2" s="185" t="s">
         <v>224</v>
       </c>
       <c r="H2" s="26" t="s">
@@ -15306,10 +15309,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15332,117 +15335,117 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="186"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="186"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="196"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="186"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="186"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="186"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="186"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="70">
         <v>1000000</v>
       </c>
@@ -15459,11 +15462,11 @@
       <c r="K10" s="73"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="70">
         <v>1000000</v>
       </c>
@@ -15480,11 +15483,11 @@
       <c r="K11" s="73"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="185"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
       <c r="E12" s="75">
         <f>E11/E10</f>
         <v>1</v>
@@ -15502,11 +15505,11 @@
       <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
       <c r="E13" s="70">
         <f>E10-E11</f>
         <v>0</v>
@@ -15527,11 +15530,11 @@
       <c r="K13" s="73"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="185" t="s">
+      <c r="B14" s="194" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
       <c r="E14" s="75">
         <v>0</v>
       </c>
@@ -15543,11 +15546,11 @@
       <c r="K14" s="73"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="78">
         <v>800000</v>
       </c>
@@ -15559,11 +15562,11 @@
       <c r="K15" s="73"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
       <c r="E16" s="79">
         <v>120000</v>
       </c>
@@ -15575,11 +15578,11 @@
       <c r="K16" s="73"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="185" t="s">
+      <c r="B17" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
       <c r="E17" s="79">
         <v>250000</v>
       </c>
@@ -15591,11 +15594,11 @@
       <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
       <c r="E18" s="75">
         <v>0.18</v>
       </c>
@@ -15607,11 +15610,11 @@
       <c r="K18" s="73"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
       <c r="E19" s="75">
         <v>0.2</v>
       </c>
@@ -15623,11 +15626,11 @@
       <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="185" t="s">
+      <c r="B20" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
       <c r="E20" s="75">
         <v>0.23</v>
       </c>
@@ -15643,14 +15646,14 @@
       <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="182" t="s">
+      <c r="A21" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="182" t="s">
+      <c r="B21" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
       <c r="E21" s="78">
         <v>2020</v>
       </c>
@@ -15678,15 +15681,15 @@
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="L21" s="184" t="s">
+      <c r="L21" s="203" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
+      <c r="A22" s="201"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="202"/>
       <c r="E22" s="82">
         <v>0</v>
       </c>
@@ -15708,17 +15711,17 @@
       <c r="K22" s="82">
         <v>6</v>
       </c>
-      <c r="L22" s="184"/>
+      <c r="L22" s="203"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="78">
         <v>1</v>
       </c>
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
       <c r="E23" s="83"/>
       <c r="F23" s="83"/>
       <c r="G23" s="83"/>
@@ -15732,11 +15735,11 @@
       <c r="A24" s="78">
         <v>2</v>
       </c>
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
       <c r="E24" s="83">
         <f>-E10</f>
         <v>-1000000</v>
@@ -15753,11 +15756,11 @@
       <c r="A25" s="78">
         <v>3</v>
       </c>
-      <c r="B25" s="178" t="s">
+      <c r="B25" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
       <c r="E25" s="85">
         <f>-E10</f>
         <v>-1000000</v>
@@ -15774,11 +15777,11 @@
       <c r="A26" s="78">
         <v>4</v>
       </c>
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
       <c r="E26" s="83"/>
       <c r="F26" s="83"/>
       <c r="G26" s="83"/>
@@ -15792,11 +15795,11 @@
       <c r="A27" s="78">
         <v>5</v>
       </c>
-      <c r="B27" s="179" t="s">
+      <c r="B27" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="200"/>
       <c r="E27" s="86">
         <f>-(E10*E12)</f>
         <v>-1000000</v>
@@ -15813,11 +15816,11 @@
       <c r="A28" s="78">
         <v>6</v>
       </c>
-      <c r="B28" s="179" t="s">
+      <c r="B28" s="200" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="200"/>
       <c r="E28" s="86">
         <f>-E13</f>
         <v>0</v>
@@ -15834,11 +15837,11 @@
       <c r="A29" s="78">
         <v>7</v>
       </c>
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
       <c r="E29" s="86"/>
       <c r="F29" s="86">
         <f>($E$28/5)</f>
@@ -15869,11 +15872,11 @@
       <c r="A30" s="78">
         <v>8</v>
       </c>
-      <c r="B30" s="179" t="s">
+      <c r="B30" s="200" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
       <c r="E30" s="87">
         <f>E28</f>
         <v>0</v>
@@ -15907,11 +15910,11 @@
       <c r="A31" s="78">
         <v>9</v>
       </c>
-      <c r="B31" s="179" t="s">
+      <c r="B31" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="200"/>
       <c r="E31" s="86"/>
       <c r="F31" s="86">
         <f>E30*$E$14</f>
@@ -15941,11 +15944,11 @@
       <c r="A32" s="78">
         <v>10</v>
       </c>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="206" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="178"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="206"/>
       <c r="E32" s="85">
         <f>E28+E27</f>
         <v>-1000000</v>
@@ -15979,11 +15982,11 @@
       <c r="A33" s="78">
         <v>11</v>
       </c>
-      <c r="B33" s="181" t="s">
+      <c r="B33" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
       <c r="E33" s="83"/>
       <c r="F33" s="83"/>
       <c r="G33" s="83"/>
@@ -15997,11 +16000,11 @@
       <c r="A34" s="78">
         <v>12</v>
       </c>
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
       <c r="E34" s="83"/>
       <c r="F34" s="83">
         <f>$E$17</f>
@@ -16033,11 +16036,11 @@
       <c r="A35" s="78">
         <v>13</v>
       </c>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
+      <c r="C35" s="200"/>
+      <c r="D35" s="200"/>
       <c r="E35" s="86"/>
       <c r="F35" s="86">
         <f>$E$16</f>
@@ -16069,11 +16072,11 @@
       <c r="A36" s="78">
         <v>14</v>
       </c>
-      <c r="B36" s="179" t="s">
+      <c r="B36" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="200"/>
       <c r="E36" s="86"/>
       <c r="F36" s="86">
         <f>$E$15/5</f>
@@ -16104,11 +16107,11 @@
       <c r="A37" s="78">
         <v>15</v>
       </c>
-      <c r="B37" s="179" t="s">
+      <c r="B37" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="200"/>
       <c r="E37" s="86"/>
       <c r="F37" s="86">
         <f>F34/6</f>
@@ -16142,11 +16145,11 @@
       <c r="A38" s="78">
         <v>16</v>
       </c>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="200"/>
       <c r="E38" s="86"/>
       <c r="F38" s="86">
         <f>F34-F37</f>
@@ -16180,11 +16183,11 @@
       <c r="A39" s="78">
         <v>17</v>
       </c>
-      <c r="B39" s="179" t="s">
+      <c r="B39" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="200"/>
       <c r="E39" s="86"/>
       <c r="F39" s="86">
         <f>F38-F35-F36</f>
@@ -16218,11 +16221,11 @@
       <c r="A40" s="78">
         <v>18</v>
       </c>
-      <c r="B40" s="179" t="s">
+      <c r="B40" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
+      <c r="C40" s="200"/>
+      <c r="D40" s="200"/>
       <c r="E40" s="86"/>
       <c r="F40" s="86">
         <f>F39*$E$18</f>
@@ -16256,11 +16259,11 @@
       <c r="A41" s="78">
         <v>19</v>
       </c>
-      <c r="B41" s="179" t="s">
+      <c r="B41" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
+      <c r="C41" s="200"/>
+      <c r="D41" s="200"/>
       <c r="E41" s="86"/>
       <c r="F41" s="86">
         <f>F39-F40</f>
@@ -16294,11 +16297,11 @@
       <c r="A42" s="78">
         <v>20</v>
       </c>
-      <c r="B42" s="178" t="s">
+      <c r="B42" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="178"/>
-      <c r="D42" s="178"/>
+      <c r="C42" s="206"/>
+      <c r="D42" s="206"/>
       <c r="E42" s="85"/>
       <c r="F42" s="85">
         <f>F41+F36</f>
@@ -16332,11 +16335,11 @@
       <c r="A43" s="78">
         <v>21</v>
       </c>
-      <c r="B43" s="180" t="s">
+      <c r="B43" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
+      <c r="C43" s="205"/>
+      <c r="D43" s="205"/>
       <c r="E43" s="83">
         <v>0</v>
       </c>
@@ -16372,11 +16375,11 @@
       <c r="A44" s="78">
         <v>22</v>
       </c>
-      <c r="B44" s="178" t="s">
+      <c r="B44" s="206" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="206"/>
       <c r="E44" s="85">
         <f>E27</f>
         <v>-1000000</v>
@@ -16452,11 +16455,11 @@
       <c r="A46" s="78">
         <v>24</v>
       </c>
-      <c r="B46" s="179" t="s">
+      <c r="B46" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="179"/>
-      <c r="D46" s="179"/>
+      <c r="C46" s="200"/>
+      <c r="D46" s="200"/>
       <c r="E46" s="86">
         <f>E44</f>
         <v>-1000000</v>
@@ -16493,11 +16496,11 @@
       <c r="A47" s="78">
         <v>25</v>
       </c>
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="179"/>
-      <c r="D47" s="179"/>
+      <c r="C47" s="200"/>
+      <c r="D47" s="200"/>
       <c r="E47" s="86">
         <f>E44</f>
         <v>-1000000</v>
@@ -16575,11 +16578,11 @@
       <c r="A49" s="78">
         <v>27</v>
       </c>
-      <c r="B49" s="179" t="s">
+      <c r="B49" s="200" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
+      <c r="C49" s="200"/>
+      <c r="D49" s="200"/>
       <c r="E49" s="86">
         <f>E44</f>
         <v>-1000000</v>
@@ -16616,11 +16619,11 @@
       <c r="A50" s="78">
         <v>28</v>
       </c>
-      <c r="B50" s="179" t="s">
+      <c r="B50" s="200" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="179"/>
-      <c r="D50" s="179"/>
+      <c r="C50" s="200"/>
+      <c r="D50" s="200"/>
       <c r="E50" s="86">
         <f>E49</f>
         <v>-1000000</v>
@@ -16707,8 +16710,42 @@
         <v>115</v>
       </c>
     </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="68" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B2:L9"/>
     <mergeCell ref="B10:D10"/>
@@ -16721,35 +16758,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
   </mergeCells>
   <pageMargins left="0.18" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17547,26 +17555,26 @@
       <c r="I14" s="139"/>
       <c r="J14" s="139"/>
       <c r="K14" s="167"/>
-      <c r="L14" s="174" t="s">
+      <c r="L14" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="M14" s="175"/>
-      <c r="N14" s="170" t="s">
+      <c r="M14" s="191"/>
+      <c r="N14" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="O14" s="170"/>
-      <c r="P14" s="171"/>
+      <c r="O14" s="186"/>
+      <c r="P14" s="187"/>
       <c r="Q14" s="143"/>
       <c r="R14" s="167"/>
-      <c r="S14" s="174" t="s">
+      <c r="S14" s="190" t="s">
         <v>216</v>
       </c>
-      <c r="T14" s="175"/>
-      <c r="U14" s="170" t="s">
+      <c r="T14" s="191"/>
+      <c r="U14" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="V14" s="170"/>
-      <c r="W14" s="171"/>
+      <c r="V14" s="186"/>
+      <c r="W14" s="187"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
@@ -17591,8 +17599,8 @@
       <c r="I15" s="139"/>
       <c r="J15" s="139"/>
       <c r="K15" s="167"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="177"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="193"/>
       <c r="N15" s="132">
         <f>B8</f>
         <v>0.9</v>
@@ -17607,8 +17615,8 @@
       </c>
       <c r="Q15" s="161"/>
       <c r="R15" s="167"/>
-      <c r="S15" s="176"/>
-      <c r="T15" s="177"/>
+      <c r="S15" s="192"/>
+      <c r="T15" s="193"/>
       <c r="U15" s="132">
         <f>B8</f>
         <v>0.9</v>
@@ -17633,7 +17641,7 @@
       <c r="K16" s="168" t="s">
         <v>294</v>
       </c>
-      <c r="L16" s="172" t="s">
+      <c r="L16" s="188" t="s">
         <v>211</v>
       </c>
       <c r="M16" s="132">
@@ -17656,7 +17664,7 @@
       <c r="R16" s="168" t="s">
         <v>294</v>
       </c>
-      <c r="S16" s="172" t="s">
+      <c r="S16" s="188" t="s">
         <v>211</v>
       </c>
       <c r="T16" s="132">
@@ -17698,7 +17706,7 @@
       <c r="K17" s="168" t="s">
         <v>289</v>
       </c>
-      <c r="L17" s="172"/>
+      <c r="L17" s="188"/>
       <c r="M17" s="132">
         <f t="shared" si="3"/>
         <v>0.2</v>
@@ -17719,7 +17727,7 @@
       <c r="R17" s="168" t="s">
         <v>289</v>
       </c>
-      <c r="S17" s="172"/>
+      <c r="S17" s="188"/>
       <c r="T17" s="132">
         <f>B14</f>
         <v>0.2</v>
@@ -17762,7 +17770,7 @@
       <c r="K18" s="169" t="s">
         <v>290</v>
       </c>
-      <c r="L18" s="173"/>
+      <c r="L18" s="189"/>
       <c r="M18" s="136">
         <f t="shared" si="3"/>
         <v>0.1</v>
@@ -17783,7 +17791,7 @@
       <c r="R18" s="169" t="s">
         <v>290</v>
       </c>
-      <c r="S18" s="173"/>
+      <c r="S18" s="189"/>
       <c r="T18" s="136">
         <f>B15</f>
         <v>0.1</v>
